--- a/order.xlsx
+++ b/order.xlsx
@@ -326,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,7 +337,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,50 +369,58 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="n">
+        <v>1002917698</v>
+      </c>
       <c r="D3" s="1" t="n">
-        <v>2217310050</v>
+        <v>2217309997</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="1" t="n">
+        <v>2217310050</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="n">
         <v>2217311431</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>3299</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>2212891851</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>1002969931</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>2217311253</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
         <v>2212845129</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>1002917698</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>2217309997</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1" t="n">
         <v>1002917699</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>2217309998</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="n">
         <v>2217309999</v>
       </c>
     </row>

--- a/order.xlsx
+++ b/order.xlsx
@@ -326,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,58 +372,47 @@
       <c r="C3" s="1" t="n">
         <v>1002917698</v>
       </c>
-      <c r="D3" s="1" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3299</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2212891851</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1002969931</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2217311253</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>2212845129</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1002917697</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>2217309997</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="1" t="n">
-        <v>2217310050</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="1" t="n">
-        <v>2217311431</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>3299</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>2212891851</v>
-      </c>
       <c r="C6" s="1" t="n">
-        <v>1002969931</v>
+        <v>1002917699</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2217311253</v>
+        <v>2217309998</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="n">
-        <v>2212845129</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1002917698</v>
-      </c>
       <c r="D7" s="1" t="n">
-        <v>2217309997</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="n">
-        <v>1002917699</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2217309998</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="1" t="n">
         <v>2217309999</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -329,7 +329,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,46 +372,53 @@
       <c r="C3" s="1" t="n">
         <v>1002917698</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>2217310050</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="D4" s="1" t="n">
+        <v>2217311431</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3299</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>2212891851</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>1002969931</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>2217311253</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
         <v>2212845129</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <v>1002917697</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>2217309997</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="1" t="n">
         <v>1002917699</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>2217309998</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="1" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="n">
         <v>2217309999</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -329,7 +329,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,6 +419,25 @@
         <v>2217309999</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2212845228</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1002917798</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2217399999</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="1" t="n">
+        <v>1002917799</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -329,7 +329,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -329,7 +329,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,72 +372,62 @@
       <c r="C3" s="1" t="n">
         <v>1002917698</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>2217310050</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3299</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2212891851</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1002969931</v>
+      </c>
       <c r="D4" s="1" t="n">
-        <v>2217311431</v>
+        <v>2217311253</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>3299</v>
-      </c>
       <c r="B5" s="1" t="n">
-        <v>2212891851</v>
+        <v>2212845129</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1002969931</v>
+        <v>1002917697</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2217311253</v>
+        <v>2217309997</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
-        <v>2212845129</v>
-      </c>
       <c r="C6" s="1" t="n">
-        <v>1002917697</v>
+        <v>1002917699</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2217309997</v>
+        <v>2217309998</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="n">
-        <v>1002917699</v>
-      </c>
       <c r="D7" s="1" t="n">
-        <v>2217309998</v>
+        <v>2217309999</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="n">
-        <v>2217309999</v>
+      <c r="A8" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2212845228</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1002917798</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>3300</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>2212845228</v>
-      </c>
       <c r="C9" s="1" t="n">
-        <v>1002917798</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>2217399999</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="n">
         <v>1002917799</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
